--- a/xlsx/费边社_intext.xlsx
+++ b/xlsx/费边社_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>费边社</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>政策_政策_社会政策_费边社</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>機會平等</t>
+    <t>机会平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%88%86%E5%88%B6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89</t>
   </si>
   <si>
-    <t>國有</t>
+    <t>国有</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%87%AA%E6%B2%BB</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E5%8B%9E%E5%8F%96%E9%85%AC</t>
   </si>
   <si>
-    <t>按勞取酬</t>
+    <t>按劳取酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -125,37 +125,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工團主義</t>
+    <t>工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會無政府主義</t>
+    <t>社会无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主社會主義</t>
+    <t>民主社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>革命社會主義</t>
+    <t>革命社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E8%89%AF%E4%B8%BB%E4%B9%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>科學社會主義</t>
+    <t>科学社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工黨錫安主義</t>
+    <t>工党锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態社會主義</t>
+    <t>生态社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%9F%BA%E4%B8%BB%E4%B9%89</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%8B%89%E7%91%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>斯特拉瑟主義</t>
+    <t>斯特拉瑟主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%85%8B%E6%96%AF%C2%B7%E5%B7%B4%E8%B2%9D%E5%A4%AB</t>
   </si>
   <si>
-    <t>格拉克斯·巴貝夫</t>
+    <t>格拉克斯·巴贝夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%A5%BF%E9%97%A8</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%AD%90%E6%96%87</t>
   </si>
   <si>
-    <t>羅伯特·歐文</t>
+    <t>罗伯特·欧文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%B0%94%C2%B7%E5%82%85%E7%AB%8B%E5%8F%B6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>卡爾·馬克思</t>
+    <t>卡尔·马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%81%A9%E6%A0%BC%E6%96%AF</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%85%8B%E9%AD%AF%E6%B3%A1%E7%89%B9%E9%87%91</t>
   </si>
   <si>
-    <t>彼得·克魯泡特金</t>
+    <t>彼得·克鲁泡特金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E6%96%AF%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
-    <t>瓊斯夫人</t>
+    <t>琼斯夫人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E5%A5%87%C2%B7%E5%8A%A0%E9%87%8C%E5%B0%BC</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E8%80%83%E8%8C%A8%E5%9F%BA</t>
   </si>
   <si>
-    <t>卡爾·考茨基</t>
+    <t>卡尔·考茨基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9F%AF%E5%B0%94%E6%96%BD</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8E%8E%C2%B7%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>羅莎·盧森堡</t>
+    <t>罗莎·卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%C2%B7%E5%B8%83%E9%B2%81%E5%A7%86</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%8D%A1%E9%81%94%E7%88%BE</t>
   </si>
   <si>
-    <t>愛德華·卡達爾</t>
+    <t>爱德华·卡达尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E9%97%A8%E7%89%B9%C2%B7%E8%89%BE%E5%BE%B7%E7%A4%BC</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%88%88%C2%B7%E6%9F%A5%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>烏戈·查維茲</t>
+    <t>乌戈·查维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B2%83%C2%B7%E8%8E%AB%E6%8B%89%E8%8E%B1%E6%96%AF</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E8%80%85%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>共產主義者同盟</t>
+    <t>共产主义者同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9B%BD%E9%99%85</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%BB%A8%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>社會黨國際</t>
+    <t>社会党国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%92%8C%E5%B7%A5%E4%BA%BA%E5%85%9A%E5%9B%BD%E9%99%85%E4%BC%9A%E8%AE%AE</t>
@@ -593,9 +593,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社会主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%B7%A5%E5%85%9A</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%9A_(%E8%8B%B1%E5%9B%BD)</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%95%AD%E4%BC%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>蕭伯納</t>
+    <t>萧伯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/H%C2%B7G%C2%B7%E5%A8%81%E5%B0%94%E6%96%AF</t>
@@ -695,19 +692,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%86%B2%E6%94%BF</t>
   </si>
   <si>
-    <t>民主憲政</t>
+    <t>民主宪政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
@@ -719,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
   </si>
   <si>
-    <t>階級鬥爭</t>
+    <t>阶级斗争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
@@ -737,31 +734,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E5%8C%96</t>
   </si>
   <si>
-    <t>國有化</t>
+    <t>国有化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
@@ -773,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主主義</t>
+    <t>民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA</t>
@@ -785,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>下議院</t>
+    <t>下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99</t>
@@ -821,25 +815,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>電車</t>
+    <t>电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>生產</t>
+    <t>生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>失業</t>
+    <t>失业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E4%B8%BB%E4%B9%89</t>
@@ -851,13 +845,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%B7%A5%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>英國工黨</t>
   </si>
 </sst>
 </file>
@@ -3983,7 +3974,7 @@
         <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
         <v>11</v>
@@ -4009,10 +4000,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4038,10 +4029,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4067,10 +4058,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>46</v>
@@ -4096,10 +4087,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>9</v>
@@ -4125,10 +4116,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4154,10 +4145,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4183,10 +4174,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4212,10 +4203,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4241,10 +4232,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4270,10 +4261,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4328,10 +4319,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4357,10 +4348,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4386,10 +4377,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4415,10 +4406,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4444,10 +4435,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4473,10 +4464,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>13</v>
@@ -4502,10 +4493,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -4531,10 +4522,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4560,10 +4551,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4589,10 +4580,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4618,10 +4609,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4647,10 +4638,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -4676,10 +4667,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4705,10 +4696,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4734,10 +4725,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>10</v>
@@ -4763,10 +4754,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -4792,10 +4783,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="G124" t="n">
         <v>11</v>
@@ -4821,10 +4812,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4850,10 +4841,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4879,10 +4870,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4908,10 +4899,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -4966,10 +4957,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4995,10 +4986,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5024,10 +5015,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5053,10 +5044,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5082,10 +5073,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5111,10 +5102,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>228</v>
+      </c>
+      <c r="F135" t="s">
         <v>229</v>
-      </c>
-      <c r="F135" t="s">
-        <v>230</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5140,10 +5131,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5169,10 +5160,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5198,10 +5189,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5227,10 +5218,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5256,10 +5247,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>7</v>
@@ -5285,10 +5276,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5314,10 +5305,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5343,10 +5334,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
